--- a/Identifier/oude_rommel/Updated_Methodology_Test.xlsx
+++ b/Identifier/oude_rommel/Updated_Methodology_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8625A071-0127-4EBD-8972-BACACAC84E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6A6B7-3772-4E11-883E-004D3F8E2E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
   <si>
     <t xml:space="preserve">Zelf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set 1 </t>
   </si>
   <si>
     <t>Set 1</t>
@@ -676,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,14 +692,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -734,12 +729,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,18 +1036,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,10 +1075,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1096,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1116,10 +1110,13 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1128,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1148,10 +1145,13 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1180,10 +1180,13 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1192,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1204,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1212,10 +1215,13 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1244,10 +1250,13 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1276,10 +1285,13 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1300,18 +1312,21 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1332,18 +1347,21 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1364,18 +1382,21 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1396,18 +1417,21 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1436,10 +1460,13 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1451,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1468,10 +1495,13 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1500,10 +1530,13 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1515,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1532,10 +1565,13 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1564,10 +1600,13 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1596,10 +1635,13 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1623,15 +1665,18 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1660,10 +1705,13 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1672,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1684,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1692,10 +1740,13 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1724,10 +1775,13 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1756,10 +1810,13 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1788,10 +1845,13 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1820,10 +1880,13 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1852,10 +1915,13 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1884,10 +1950,13 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1916,10 +1985,13 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1948,10 +2020,13 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1975,15 +2050,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2012,10 +2090,13 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2044,10 +2125,13 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2076,10 +2160,13 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2108,10 +2195,13 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2135,15 +2225,18 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2172,10 +2265,13 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2204,10 +2300,13 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2236,10 +2335,13 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2268,10 +2370,13 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2300,10 +2405,13 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2332,10 +2440,13 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2364,10 +2475,13 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2388,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2396,10 +2510,13 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2428,10 +2545,13 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2440,19 +2560,19 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2460,10 +2580,13 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2492,10 +2615,13 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2504,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2519,15 +2645,18 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2548,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2556,10 +2685,13 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2568,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2580,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2588,10 +2720,13 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2615,15 +2750,18 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2652,10 +2790,13 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2684,10 +2825,13 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2716,10 +2860,13 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2748,10 +2895,13 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2780,10 +2930,13 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2812,10 +2965,13 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2844,10 +3000,13 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2856,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2868,18 +3027,21 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2891,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2908,10 +3070,13 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2940,10 +3105,13 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2972,10 +3140,13 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3004,10 +3175,13 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3036,10 +3210,13 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3068,10 +3245,13 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3100,10 +3280,13 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3115,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3124,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3132,10 +3315,13 @@
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3144,19 +3330,19 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3164,10 +3350,13 @@
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3176,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3188,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3196,10 +3385,13 @@
       <c r="J67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3211,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3220,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3228,10 +3420,13 @@
       <c r="J68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3240,19 +3435,19 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3260,10 +3455,13 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3292,10 +3490,13 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3324,10 +3525,13 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3336,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3348,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3356,10 +3560,13 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3371,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3388,10 +3595,13 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3420,10 +3630,13 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3452,10 +3665,13 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3464,19 +3680,19 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3484,10 +3700,13 @@
       <c r="J76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3496,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3508,18 +3727,21 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3528,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3540,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3548,10 +3770,13 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3580,10 +3805,13 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3592,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3604,18 +3832,21 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3639,15 +3870,18 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3656,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3668,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3676,10 +3910,13 @@
       <c r="J82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3688,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3700,18 +3937,21 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3720,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3732,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3740,10 +3980,13 @@
       <c r="J84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3752,19 +3995,19 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3772,10 +4015,13 @@
       <c r="J85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3784,19 +4030,19 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3804,459 +4050,504 @@
       <c r="J86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
       <c r="B101">
         <v>0</v>
       </c>
@@ -4284,10 +4575,13 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4296,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4308,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4316,10 +4610,13 @@
       <c r="J102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4328,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4340,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4348,10 +4645,13 @@
       <c r="J103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4360,19 +4660,19 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -4380,10 +4680,13 @@
       <c r="J104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4412,10 +4715,13 @@
       <c r="J105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4444,10 +4750,13 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4476,10 +4785,13 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4508,10 +4820,13 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4540,10 +4855,13 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4572,10 +4890,13 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4604,1227 +4925,1344 @@
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>115</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>114</v>
-      </c>
       <c r="B150">
         <v>0</v>
       </c>
@@ -5852,10 +6290,13 @@
       <c r="J150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -5884,10 +6325,13 @@
       <c r="J151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -5916,10 +6360,13 @@
       <c r="J152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5948,10 +6395,13 @@
       <c r="J153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5960,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5972,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -5980,10 +6430,13 @@
       <c r="J154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5995,27 +6448,30 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6036,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6044,10 +6500,13 @@
       <c r="J156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -6076,10 +6535,13 @@
       <c r="J157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6108,10 +6570,13 @@
       <c r="J158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -6140,10 +6605,13 @@
       <c r="J159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6172,10 +6640,13 @@
       <c r="J160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -6204,10 +6675,13 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -6236,10 +6710,13 @@
       <c r="J162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -6268,10 +6745,13 @@
       <c r="J163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -6300,10 +6780,13 @@
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -6312,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6324,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6332,10 +6815,13 @@
       <c r="J165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -6347,27 +6833,30 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -6396,10 +6885,13 @@
       <c r="J167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -6428,10 +6920,13 @@
       <c r="J168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -6440,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6452,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -6460,10 +6955,13 @@
       <c r="J169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -6487,15 +6985,18 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -6524,10 +7025,13 @@
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -6556,10 +7060,13 @@
       <c r="J172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -6571,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -6588,10 +7095,13 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -6620,10 +7130,13 @@
       <c r="J174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -6652,10 +7165,13 @@
       <c r="J175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6664,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -6676,18 +7192,21 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -6716,10 +7235,13 @@
       <c r="J177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6728,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -6740,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -6748,10 +7270,13 @@
       <c r="J178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -6780,10 +7305,13 @@
       <c r="J179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -6812,10 +7340,13 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -6824,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6836,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -6844,10 +7375,13 @@
       <c r="J181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6876,10 +7410,13 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6900,18 +7437,21 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6940,10 +7480,13 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6972,10 +7515,13 @@
       <c r="J185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -7004,10 +7550,13 @@
       <c r="J186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -7016,19 +7565,19 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -7036,10 +7585,13 @@
       <c r="J187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -7068,10 +7620,13 @@
       <c r="J188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -7100,10 +7655,13 @@
       <c r="J189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -7132,10 +7690,13 @@
       <c r="J190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -7156,18 +7717,21 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -7196,10 +7760,13 @@
       <c r="J192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -7208,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -7220,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -7228,10 +7795,13 @@
       <c r="J193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -7260,10 +7830,13 @@
       <c r="J194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -7292,10 +7865,13 @@
       <c r="J195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -7324,10 +7900,13 @@
       <c r="J196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -7336,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -7348,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7356,10 +7935,13 @@
       <c r="J197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -7368,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -7380,18 +7962,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -7420,10 +8005,13 @@
       <c r="J199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -7452,10 +8040,13 @@
       <c r="J200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -7464,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -7476,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -7484,76 +8075,49 @@
       <c r="J201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>204</v>
-      </c>
-      <c r="C202" s="2" cm="1">
+        <v>205</v>
+      </c>
+      <c r="C202" cm="1">
         <f t="array" ref="C202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;C2:C201)))</f>
         <v>19</v>
       </c>
-      <c r="D202" s="2" cm="1">
+      <c r="D202" cm="1">
         <f t="array" ref="D202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;D2:D201)))</f>
+        <v>19</v>
+      </c>
+      <c r="E202" cm="1">
+        <f t="array" ref="E202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;E2:E201)))</f>
         <v>63</v>
       </c>
-      <c r="E202" s="2" cm="1">
-        <f t="array" ref="E202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;E2:E201)))</f>
+      <c r="F202" cm="1">
+        <f t="array" ref="F202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;F2:F201)))</f>
         <v>64</v>
       </c>
-      <c r="F202" s="2" cm="1">
-        <f t="array" ref="F202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;F2:F201)))</f>
-        <v>66</v>
-      </c>
-      <c r="G202" s="2" cm="1">
+      <c r="G202" cm="1">
         <f t="array" ref="G202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;G2:G201)))</f>
         <v>66</v>
       </c>
-      <c r="H202" s="2" cm="1">
+      <c r="H202" cm="1">
         <f t="array" ref="H202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;H2:H201)))</f>
-        <v>23</v>
-      </c>
-      <c r="I202" s="2" cm="1">
+        <v>66</v>
+      </c>
+      <c r="I202" cm="1">
         <f t="array" ref="I202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;I2:I201)))</f>
         <v>23</v>
       </c>
-      <c r="J202" s="2" cm="1">
+      <c r="J202" cm="1">
         <f t="array" ref="J202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;J2:J201)))</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C203">
-        <f>SUMIFS(C2:C201, C2:C201, 1, $B2:$B201, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="D203">
-        <f t="shared" ref="D203:J203" si="0">SUMIFS(D2:D201, D2:D201, 1, $B2:$B201, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I203">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="K202" cm="1">
+        <f t="array" ref="K202">SUMPRODUCT(--(($B$2:$B$201&lt;&gt;K2:K201)))</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
